--- a/loaded_influencer_data/nozomuevd/nozomuevd_video.xlsx
+++ b/loaded_influencer_data/nozomuevd/nozomuevd_video.xlsx
@@ -506,13 +506,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7463897977938070806</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="C2" t="n">
         <v>97</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>13.6</v>
+        <v>13.52272727272727</v>
       </c>
       <c r="I2" t="n">
-        <v>11.08571428571429</v>
+        <v>11.02272727272727</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.514285714285714</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.6</v>
+        <v>1.590909090909091</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7452402019467300118</t>
         </is>
@@ -574,7 +574,7 @@
         <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -584,12 +584,15 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Thank you Cellline Clinic, I’ll definitely be back! 💖
-📍Location: Seoul, Mapo-gu, Yanghwa-ro 140, H-Cube, 7th Floor</t>
+          <t>The products :
+Shiseido - Fino Premium
+Touch Hair Mask
+Miseenscéne -Perfect Serum, Super Rich
+Both are available on YesStyle! Use NOZOMU10 for more discounts ♡</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>13.59223300970874</v>
+        <v>13.43042071197411</v>
       </c>
       <c r="I3" t="n">
         <v>11.16504854368932</v>
@@ -598,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.427184466019417</v>
+        <v>2.26537216828479</v>
       </c>
       <c r="L3" t="n">
         <v>1.132686084142395</v>
@@ -615,16 +618,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7466869121943112982</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="C4" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D4" t="n">
         <v>21</v>
@@ -641,19 +644,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>15.34246575342466</v>
+        <v>15.36388140161725</v>
       </c>
       <c r="I4" t="n">
-        <v>12.46575342465754</v>
+        <v>12.53369272237197</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.876712328767123</v>
+        <v>2.830188679245283</v>
       </c>
       <c r="L4" t="n">
-        <v>1.506849315068493</v>
+        <v>1.482479784366577</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -667,25 +670,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7479893876828884246</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -695,19 +698,19 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>18.18181818181818</v>
+        <v>18.09145129224652</v>
       </c>
       <c r="I5" t="n">
-        <v>14.79915433403806</v>
+        <v>14.7117296222664</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.382663847780127</v>
+        <v>3.379721669980119</v>
       </c>
       <c r="L5" t="n">
-        <v>1.05708245243129</v>
+        <v>1.192842942345924</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -719,16 +722,16 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7479091452895595798</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="C6" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" t="n">
         <v>18</v>
@@ -748,19 +751,19 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>17.43929359823399</v>
+        <v>17.12473572938689</v>
       </c>
       <c r="I6" t="n">
-        <v>13.46578366445916</v>
+        <v>13.31923890063425</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>3.973509933774835</v>
+        <v>3.805496828752643</v>
       </c>
       <c r="L6" t="n">
-        <v>1.545253863134658</v>
+        <v>1.479915433403805</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -772,16 +775,16 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7478733082649021718</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="C7" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D7" t="n">
         <v>17</v>
@@ -798,19 +801,19 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>19.78021978021978</v>
+        <v>20.92050209205021</v>
       </c>
       <c r="I7" t="n">
-        <v>16.04395604395604</v>
+        <v>17.36401673640167</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3.736263736263736</v>
+        <v>3.556485355648536</v>
       </c>
       <c r="L7" t="n">
-        <v>1.538461538461539</v>
+        <v>1.464435146443515</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -822,261 +825,261 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nozomuevd/video/7476862281163230486</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>678</v>
+      </c>
+      <c r="C8" t="n">
+        <v>83</v>
+      </c>
+      <c r="D8" t="n">
+        <v>17</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Celebrate WOMEN's day with Stylevana ! Stylevana is your one-stop shop for your Asian beauty products! 15% discounts with my code INF105NOZO</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>14.74926253687316</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.24188790560472</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.507374631268437</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.032448377581121</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nozomuevd/video/7475019778675969302</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>569</v>
+      </c>
+      <c r="C9" t="n">
+        <v>92</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Thank you, Mixsoon, for this huge package! I can't wait to try everything!! ✨
+@mixsoon_official @mixsoon_global</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>20.56239015817223</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16.16871704745167</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.393673110720562</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.40597539543058</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nozomuevd/video/7474662922791161110</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>566</v>
+      </c>
+      <c r="C10" t="n">
+        <v>96</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>February pr are crazy ㅠㅠ
+#glassskinroutine #skincare #koreanproducts #koreanskincare #prunboxing</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>20.49469964664311</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16.96113074204947</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.53356890459364</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.590106007067138</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/photo/7477979581601877270</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B11" t="n">
         <v>525</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C11" t="n">
         <v>62</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D11" t="n">
         <v>11</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>6</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Deadline: March 23 ♡
 #giveaway #koreanskincare #koreanproducts #mixsoon #glassskinroutine</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H11" t="n">
         <v>13.90476190476191</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I11" t="n">
         <v>11.80952380952381</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.095238095238095</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L11" t="n">
         <v>1.142857142857143</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7477683431355239702</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B12" t="n">
         <v>853</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C12" t="n">
         <v>65</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D12" t="n">
         <v>60</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>9</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>🩷GIVEAWAY🩷
 Thank you for everything! I received a lot of products in February, and I wanted to share this with you as a token of my gratitude✨️ There will be one winner, and the giveaway is open worldwide🌸 I'll try to do this kind of content every 2-3 months because it's thanks to you that I get to receive and test new releases 💗</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H12" t="n">
         <v>14.65416178194607</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I12" t="n">
         <v>7.620164126611957</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>7.033997655334115</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L12" t="n">
         <v>1.055099648300117</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nozomuevd/video/7476862281163230486</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>650</v>
-      </c>
-      <c r="C10" t="n">
-        <v>85</v>
-      </c>
-      <c r="D10" t="n">
-        <v>25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Thank you, Mixsoon, for this huge package! I can't wait to try everything!! ✨
-@mixsoon_official @mixsoon_global</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>16.92307692307692</v>
-      </c>
-      <c r="I10" t="n">
-        <v>13.07692307692308</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.846153846153846</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.230769230769231</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2025-03-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nozomuevd/video/7475019778675969302</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>561</v>
-      </c>
-      <c r="C11" t="n">
-        <v>90</v>
-      </c>
-      <c r="D11" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Thank you, Mixsoon, for this huge package! I can't wait to try everything!! ✨
-@mixsoon_official @mixsoon_global</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>19.6078431372549</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16.0427807486631</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.565062388591801</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.60427807486631</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@nozomuevd/video/7474662922791161110</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>557</v>
-      </c>
-      <c r="C12" t="n">
-        <v>70</v>
-      </c>
-      <c r="D12" t="n">
-        <v>21</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>you can find those products on YesStyle and Stylvana 🩷 Thank you sm B:Lab ! I'm really impressed by your brand’s quality 💗</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>16.33752244165171</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12.5673249551167</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.770197486535009</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.077199281867145</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2025-02-24</t>
-        </is>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/photo/7469091384960601366</t>
         </is>
@@ -1127,7 +1130,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/photo/7467583949838044438</t>
         </is>
@@ -1180,7 +1183,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7465385959035538710</t>
         </is>
@@ -1231,7 +1234,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7463157423252065558</t>
         </is>
@@ -1282,7 +1285,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7461674554813861142</t>
         </is>
@@ -1332,7 +1335,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7460935877133470998</t>
         </is>
@@ -1382,7 +1385,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/photo/7460561996166073622</t>
         </is>
@@ -1433,7 +1436,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7459467280326626583</t>
         </is>
@@ -1484,7 +1487,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7459088777751940374</t>
         </is>
@@ -1536,7 +1539,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7459070338115128598</t>
         </is>
@@ -1587,7 +1590,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7458768008362626326</t>
         </is>
@@ -1638,7 +1641,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7458721580185570582</t>
         </is>
@@ -1691,7 +1694,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7458330142666935574</t>
         </is>
@@ -1742,7 +1745,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7457592568474291478</t>
         </is>
@@ -1793,7 +1796,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7457223984585788694</t>
         </is>
@@ -1844,7 +1847,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7456819170500414742</t>
         </is>
@@ -1895,7 +1898,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7453874295136210198</t>
         </is>
@@ -1946,7 +1949,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7453502989819743510</t>
         </is>
@@ -1997,7 +2000,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7453143337672002838</t>
         </is>
@@ -2049,7 +2052,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7450988873972337942</t>
         </is>
@@ -2100,7 +2103,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7450597420137712918</t>
         </is>
@@ -2151,7 +2154,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7449777223155846422</t>
         </is>
@@ -2202,7 +2205,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7448345156199288087</t>
         </is>
@@ -2253,7 +2256,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7447148979927780630</t>
         </is>
@@ -2304,7 +2307,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7446858164219301142</t>
         </is>
@@ -2355,7 +2358,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7446816793303272726</t>
         </is>
@@ -2407,7 +2410,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/photo/7446524041051016470</t>
         </is>
@@ -2458,7 +2461,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7446457001816739094</t>
         </is>
@@ -2510,7 +2513,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/photo/7446393058435796256</t>
         </is>
@@ -2561,7 +2564,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7446064516795845921</t>
         </is>
@@ -2612,7 +2615,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7444990219813784854</t>
         </is>
@@ -2664,7 +2667,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/photo/7444711337457978646</t>
         </is>
@@ -2715,7 +2718,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7444620458537782561</t>
         </is>
@@ -2765,7 +2768,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/photo/7444243389710732567</t>
         </is>
@@ -2815,7 +2818,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@nozomuevd/video/7444167179567762710</t>
         </is>
